--- a/www.eia.gov/electricity/monthly/xls/table_4_17.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 4.17. Receipts and Quality of Coal by Rank Delivered for Electricity Generation:</t>
   </si>
   <si>
-    <t>Commercial Sector by State, October 2016</t>
+    <t>Commercial Sector by State, November 2016</t>
   </si>
   <si>
     <t/>
@@ -1855,13 +1855,13 @@
         <v>28</v>
       </c>
       <c r="B22" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="D22" s="13">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E22" s="11">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>32</v>
       </c>
       <c r="B26" s="15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="16">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="D26" s="17">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         <v>72</v>
       </c>
       <c r="B66" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C66" s="12">
-        <v>3.15</v>
+        <v>3.04</v>
       </c>
       <c r="D66" s="13">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E66" s="11">
         <v>0</v>
